--- a/Datasets/TrustSE/TrustSE_pre-extract.xlsx
+++ b/Datasets/TrustSE/TrustSE_pre-extract.xlsx
@@ -573,7 +573,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -611,7 +615,11 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -649,7 +657,11 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -687,7 +699,11 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -725,7 +741,11 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -763,7 +783,11 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -801,7 +825,11 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -839,7 +867,11 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -877,7 +909,11 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -915,7 +951,11 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -953,7 +993,11 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -991,7 +1035,11 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1029,7 +1077,11 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1067,7 +1119,11 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -1105,11 +1161,19 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R16" t="n">
         <v>2</v>
       </c>
@@ -1143,7 +1207,11 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1181,7 +1249,11 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -1219,7 +1291,11 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -1257,7 +1333,11 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -1295,11 +1375,19 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R21" t="n">
         <v>2</v>
       </c>
@@ -1333,7 +1421,11 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1371,7 +1463,11 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1409,7 +1505,11 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -1447,7 +1547,11 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -1485,7 +1589,11 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -1523,7 +1631,11 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -1561,7 +1673,11 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -1599,7 +1715,11 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -1637,7 +1757,11 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -1675,7 +1799,11 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -1713,11 +1841,19 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
@@ -1751,7 +1887,11 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -1789,7 +1929,11 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -1827,7 +1971,11 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -1865,7 +2013,11 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -1903,7 +2055,11 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -1941,7 +2097,11 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -1979,7 +2139,11 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -2017,7 +2181,11 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -2055,7 +2223,11 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -2093,7 +2265,11 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -2131,7 +2307,11 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -2169,7 +2349,11 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -2207,11 +2391,19 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R45" t="n">
         <v>2</v>
       </c>
@@ -2245,7 +2437,11 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2283,7 +2479,11 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -2321,7 +2521,11 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -2359,11 +2563,19 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
@@ -2397,11 +2609,19 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R50" t="n">
         <v>2</v>
       </c>
@@ -2435,7 +2655,11 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2473,7 +2697,11 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -2511,7 +2739,11 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -2549,7 +2781,11 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -2587,11 +2823,19 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R55" t="n">
         <v>2</v>
       </c>
@@ -2625,7 +2869,11 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -2663,11 +2911,19 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R57" t="n">
         <v>2</v>
       </c>
@@ -2701,7 +2957,11 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -2739,7 +2999,11 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -2777,7 +3041,11 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -2815,11 +3083,19 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R61" t="n">
         <v>2</v>
       </c>
@@ -2853,7 +3129,11 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -2891,11 +3171,19 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R63" t="n">
         <v>2</v>
       </c>
@@ -2929,11 +3217,19 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R64" t="n">
         <v>2</v>
       </c>
@@ -2967,7 +3263,11 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -3005,11 +3305,19 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R66" t="n">
         <v>2</v>
       </c>
@@ -3043,7 +3351,11 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
@@ -3081,7 +3393,11 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -3119,11 +3435,19 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R69" t="n">
         <v>2</v>
       </c>
@@ -3157,7 +3481,11 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -3195,11 +3523,19 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R71" t="n">
         <v>2</v>
       </c>
@@ -3233,7 +3569,11 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -3271,7 +3611,11 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -3309,7 +3653,11 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
@@ -3347,7 +3695,11 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -3385,7 +3737,11 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -3423,7 +3779,11 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
@@ -3461,7 +3821,11 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -3499,7 +3863,11 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
@@ -3537,7 +3905,11 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
@@ -3575,7 +3947,11 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
@@ -3613,7 +3989,11 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -3651,7 +4031,11 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
@@ -3689,11 +4073,19 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R84" t="n">
         <v>2</v>
       </c>
@@ -3727,7 +4119,11 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
@@ -3765,7 +4161,11 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
@@ -3803,7 +4203,11 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
@@ -3841,11 +4245,19 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R88" t="n">
         <v>2</v>
       </c>
@@ -3879,7 +4291,11 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
@@ -3917,7 +4333,11 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
@@ -3955,7 +4375,11 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
@@ -3993,7 +4417,11 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
@@ -4031,7 +4459,11 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -4069,7 +4501,11 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -4107,7 +4543,11 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
@@ -4145,7 +4585,11 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
@@ -4183,7 +4627,11 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
@@ -4221,7 +4669,11 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
@@ -4259,11 +4711,19 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R99" t="n">
         <v>2</v>
       </c>
@@ -4297,7 +4757,11 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
@@ -4335,11 +4799,19 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R101" t="n">
         <v>2</v>
       </c>
@@ -4373,11 +4845,19 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R102" t="n">
         <v>2</v>
       </c>
@@ -4411,11 +4891,19 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R103" t="n">
         <v>2</v>
       </c>
@@ -4449,7 +4937,11 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -4487,7 +4979,11 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
@@ -4525,7 +5021,11 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -4563,7 +5063,11 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -4601,7 +5105,11 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
@@ -4639,7 +5147,11 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
@@ -4677,7 +5189,11 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
@@ -4715,11 +5231,19 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R111" t="n">
         <v>2</v>
       </c>
@@ -4753,7 +5277,11 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
@@ -4791,7 +5319,11 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
@@ -4829,7 +5361,11 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
@@ -4867,11 +5403,19 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R115" t="n">
         <v>2</v>
       </c>
@@ -4905,7 +5449,11 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -4943,11 +5491,19 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R117" t="n">
         <v>2</v>
       </c>
@@ -4981,7 +5537,11 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -5019,11 +5579,19 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R119" t="n">
         <v>2</v>
       </c>
@@ -5057,11 +5625,19 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R120" t="n">
         <v>2</v>
       </c>
@@ -5095,11 +5671,19 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R121" t="n">
         <v>2</v>
       </c>
@@ -5133,11 +5717,19 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R122" t="n">
         <v>2</v>
       </c>
@@ -5171,11 +5763,19 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R123" t="n">
         <v>2</v>
       </c>
@@ -5209,11 +5809,19 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R124" t="n">
         <v>2</v>
       </c>
@@ -5247,7 +5855,11 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -5285,7 +5897,11 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
@@ -5323,7 +5939,11 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
@@ -5361,7 +5981,11 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
@@ -5399,11 +6023,19 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R129" t="n">
         <v>2</v>
       </c>
@@ -5437,11 +6069,19 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R130" t="n">
         <v>2</v>
       </c>
@@ -5475,7 +6115,11 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
@@ -5513,11 +6157,19 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R132" t="n">
         <v>2</v>
       </c>
@@ -5551,7 +6203,11 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -5589,7 +6245,11 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -5627,7 +6287,11 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -5665,7 +6329,11 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
@@ -5703,7 +6371,11 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
@@ -5741,7 +6413,11 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
@@ -5779,7 +6455,11 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -5817,7 +6497,11 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
@@ -5855,7 +6539,11 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -5893,7 +6581,11 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
@@ -5931,7 +6623,11 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
@@ -5969,7 +6665,11 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -6007,7 +6707,11 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
@@ -6045,7 +6749,11 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -6083,7 +6791,11 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -6121,7 +6833,11 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -6159,7 +6875,11 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -6197,7 +6917,11 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
@@ -6235,7 +6959,11 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
@@ -6273,7 +7001,11 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -6311,7 +7043,11 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -6349,7 +7085,11 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -6387,7 +7127,11 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -6425,7 +7169,11 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -6463,11 +7211,19 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R157" t="n">
         <v>2</v>
       </c>
@@ -6501,7 +7257,11 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
@@ -6539,7 +7299,11 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
@@ -6577,7 +7341,11 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
@@ -6615,11 +7383,19 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R161" t="n">
         <v>2</v>
       </c>
@@ -6653,7 +7429,11 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -6691,7 +7471,11 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -6729,11 +7513,19 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R164" t="n">
         <v>2</v>
       </c>
@@ -6767,7 +7559,11 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -6805,7 +7601,11 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
@@ -6843,7 +7643,11 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
@@ -6881,7 +7685,11 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
@@ -6919,7 +7727,11 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
@@ -6957,7 +7769,11 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
@@ -6995,7 +7811,11 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
@@ -7033,7 +7853,11 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
@@ -7071,7 +7895,11 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
@@ -7109,7 +7937,11 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
@@ -7147,11 +7979,19 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R175" t="n">
         <v>2</v>
       </c>
@@ -7185,7 +8025,11 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
@@ -7223,7 +8067,11 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
@@ -7261,11 +8109,19 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R178" t="n">
         <v>2</v>
       </c>
@@ -7299,7 +8155,11 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
@@ -7337,11 +8197,19 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R180" t="n">
         <v>2</v>
       </c>
@@ -7375,7 +8243,11 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
@@ -7413,11 +8285,19 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R182" t="n">
         <v>2</v>
       </c>
@@ -7451,7 +8331,11 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -7489,11 +8373,19 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R184" t="n">
         <v>2</v>
       </c>
@@ -7527,7 +8419,11 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
@@ -7565,7 +8461,11 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -7603,7 +8503,11 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
@@ -7641,11 +8545,19 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R188" t="n">
         <v>2</v>
       </c>
@@ -7679,7 +8591,11 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
@@ -7717,11 +8633,19 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R190" t="n">
         <v>2</v>
       </c>
@@ -7755,7 +8679,11 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -7793,11 +8721,19 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R192" t="n">
         <v>2</v>
       </c>
@@ -7831,7 +8767,11 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -7869,11 +8809,19 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R194" t="n">
         <v>2</v>
       </c>
@@ -7907,7 +8855,11 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -7945,7 +8897,11 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
@@ -7983,11 +8939,19 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R197" t="n">
         <v>2</v>
       </c>
@@ -8021,7 +8985,11 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
@@ -8059,11 +9027,19 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R199" t="n">
         <v>2</v>
       </c>
@@ -8097,7 +9073,11 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
@@ -8135,11 +9115,19 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R201" t="n">
         <v>2</v>
       </c>
@@ -8173,7 +9161,11 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
@@ -8211,7 +9203,11 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
@@ -8249,7 +9245,11 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -8287,11 +9287,19 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R205" t="n">
         <v>2</v>
       </c>
@@ -8325,11 +9333,19 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R206" t="n">
         <v>2</v>
       </c>
@@ -8363,7 +9379,11 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
@@ -8401,7 +9421,11 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
@@ -8439,11 +9463,19 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R209" t="n">
         <v>2</v>
       </c>
@@ -8477,11 +9509,19 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R210" t="n">
         <v>2</v>
       </c>
@@ -8515,7 +9555,11 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
@@ -8553,7 +9597,11 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
@@ -8591,11 +9639,19 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R213" t="n">
         <v>2</v>
       </c>
@@ -8629,7 +9685,11 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
@@ -8667,11 +9727,19 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R215" t="n">
         <v>2</v>
       </c>
@@ -8705,7 +9773,11 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
@@ -8743,11 +9815,19 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R217" t="n">
         <v>2</v>
       </c>
@@ -8781,7 +9861,11 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
@@ -8819,7 +9903,11 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
@@ -8857,7 +9945,11 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
@@ -8895,7 +9987,11 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
@@ -8933,7 +10029,11 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
@@ -8971,7 +10071,11 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
@@ -9009,7 +10113,11 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
@@ -9047,7 +10155,11 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
@@ -9085,7 +10197,11 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
@@ -9123,7 +10239,11 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
@@ -9161,7 +10281,11 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
@@ -9199,7 +10323,11 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
@@ -9237,11 +10365,19 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R230" t="n">
         <v>2</v>
       </c>
@@ -9275,7 +10411,11 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
@@ -9313,7 +10453,11 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
@@ -9351,7 +10495,11 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
@@ -9389,11 +10537,19 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R234" t="n">
         <v>2</v>
       </c>
@@ -9427,11 +10583,19 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R235" t="n">
         <v>2</v>
       </c>
@@ -9465,11 +10629,19 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R236" t="n">
         <v>2</v>
       </c>
@@ -9503,7 +10675,11 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
@@ -9541,7 +10717,11 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
@@ -9579,11 +10759,19 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R239" t="n">
         <v>2</v>
       </c>
@@ -9617,11 +10805,19 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R240" t="n">
         <v>2</v>
       </c>
@@ -9655,7 +10851,11 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
@@ -9693,7 +10893,11 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr"/>
@@ -9731,7 +10935,11 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
@@ -9769,7 +10977,11 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
@@ -9807,7 +11019,11 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
@@ -9845,7 +11061,11 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -9883,11 +11103,19 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R247" t="n">
         <v>2</v>
       </c>
@@ -9921,7 +11149,11 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
@@ -9959,7 +11191,11 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
@@ -9997,7 +11233,11 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
@@ -10035,7 +11275,11 @@
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
@@ -10073,7 +11317,11 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
@@ -10111,11 +11359,19 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R253" t="n">
         <v>2</v>
       </c>
@@ -10149,7 +11405,11 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
@@ -10187,11 +11447,19 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R255" t="n">
         <v>2</v>
       </c>
@@ -10225,11 +11493,19 @@
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R256" t="n">
         <v>2</v>
       </c>
@@ -10263,11 +11539,19 @@
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R257" t="n">
         <v>2</v>
       </c>
@@ -10301,7 +11585,11 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
@@ -10339,7 +11627,11 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
@@ -10377,7 +11669,11 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr"/>
@@ -10415,7 +11711,11 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
@@ -10453,7 +11753,11 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
@@ -10491,11 +11795,19 @@
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R263" t="n">
         <v>2</v>
       </c>
@@ -10529,7 +11841,11 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr"/>
@@ -10567,7 +11883,11 @@
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
@@ -10605,11 +11925,19 @@
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R266" t="n">
         <v>2</v>
       </c>
@@ -10643,11 +11971,19 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R267" t="n">
         <v>2</v>
       </c>
@@ -10681,7 +12017,11 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
@@ -10719,11 +12059,19 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R269" t="n">
         <v>2</v>
       </c>
@@ -10757,7 +12105,11 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
@@ -10795,7 +12147,11 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr"/>
@@ -10833,7 +12189,11 @@
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr"/>
@@ -10871,7 +12231,11 @@
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
@@ -10909,7 +12273,11 @@
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
@@ -10947,7 +12315,11 @@
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="inlineStr"/>
@@ -10985,7 +12357,11 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
@@ -11023,7 +12399,11 @@
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr"/>
@@ -11061,11 +12441,19 @@
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr"/>
-      <c r="Q278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R278" t="n">
         <v>2</v>
       </c>
@@ -11099,11 +12487,19 @@
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr"/>
-      <c r="Q279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R279" t="n">
         <v>2</v>
       </c>
@@ -11137,7 +12533,11 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
@@ -11175,7 +12575,11 @@
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr"/>
@@ -11213,7 +12617,11 @@
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr"/>
@@ -11251,11 +12659,19 @@
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr"/>
-      <c r="Q283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R283" t="n">
         <v>2</v>
       </c>
@@ -11289,7 +12705,11 @@
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="inlineStr"/>
@@ -11327,7 +12747,11 @@
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr"/>
@@ -11365,7 +12789,11 @@
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
@@ -11403,7 +12831,11 @@
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr"/>
@@ -11441,7 +12873,11 @@
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr"/>
@@ -11479,7 +12915,11 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr"/>
@@ -11517,7 +12957,11 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="inlineStr"/>
@@ -11555,11 +12999,19 @@
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr"/>
-      <c r="Q291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R291" t="n">
         <v>2</v>
       </c>
@@ -11593,7 +13045,11 @@
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
@@ -11631,7 +13087,11 @@
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr"/>
@@ -11669,7 +13129,11 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
@@ -11707,7 +13171,11 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr"/>
@@ -11745,7 +13213,11 @@
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr"/>
@@ -11783,7 +13255,11 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr"/>
@@ -11821,7 +13297,11 @@
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr"/>
@@ -11859,7 +13339,11 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr"/>
@@ -11897,11 +13381,19 @@
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="inlineStr"/>
-      <c r="Q300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R300" t="n">
         <v>2</v>
       </c>
@@ -11935,7 +13427,11 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
@@ -11973,7 +13469,11 @@
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
@@ -12011,7 +13511,11 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="inlineStr"/>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
@@ -12049,7 +13553,11 @@
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
@@ -12087,7 +13595,11 @@
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="inlineStr"/>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
@@ -12125,7 +13637,11 @@
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr"/>
@@ -12163,7 +13679,11 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr"/>
@@ -12201,7 +13721,11 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr"/>
@@ -12239,7 +13763,11 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr"/>
@@ -12277,7 +13805,11 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr"/>
@@ -12315,11 +13847,19 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
-      <c r="M311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
-      <c r="Q311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Studies that were not peer-reviewed</t>
+        </is>
+      </c>
       <c r="R311" t="n">
         <v>2</v>
       </c>
@@ -12353,7 +13893,11 @@
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
-      <c r="M312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
@@ -12391,7 +13935,11 @@
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
-      <c r="M313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr"/>
@@ -12429,11 +13977,19 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
-      <c r="Q314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R314" t="n">
         <v>2</v>
       </c>
@@ -12467,7 +14023,11 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
-      <c r="M315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr"/>
@@ -12505,11 +14065,19 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr"/>
-      <c r="M316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr"/>
-      <c r="Q316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R316" t="n">
         <v>2</v>
       </c>
@@ -12543,7 +14111,11 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
-      <c r="M317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
@@ -12581,7 +14153,11 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
-      <c r="M318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
@@ -12619,7 +14195,11 @@
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
-      <c r="M319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr"/>
@@ -12657,7 +14237,11 @@
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
-      <c r="M320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
@@ -12695,7 +14279,11 @@
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
-      <c r="M321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr"/>
@@ -12733,11 +14321,19 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr"/>
-      <c r="M322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="inlineStr"/>
-      <c r="Q322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R322" t="n">
         <v>2</v>
       </c>
@@ -12771,7 +14367,11 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr"/>
@@ -12809,7 +14409,11 @@
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
-      <c r="M324" t="inlineStr"/>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
@@ -12847,11 +14451,19 @@
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
-      <c r="M325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
-      <c r="Q325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R325" t="n">
         <v>2</v>
       </c>
@@ -12885,7 +14497,11 @@
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr"/>
-      <c r="M326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
@@ -12923,7 +14539,11 @@
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
-      <c r="M327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr"/>
@@ -12961,11 +14581,19 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
-      <c r="M328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr"/>
-      <c r="Q328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R328" t="n">
         <v>2</v>
       </c>
@@ -12999,11 +14627,19 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr"/>
-      <c r="M329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
-      <c r="Q329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R329" t="n">
         <v>2</v>
       </c>
@@ -13037,11 +14673,19 @@
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
-      <c r="M330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
-      <c r="Q330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R330" t="n">
         <v>2</v>
       </c>
@@ -13075,7 +14719,11 @@
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr"/>
-      <c r="M331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
@@ -13113,7 +14761,11 @@
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
@@ -13151,11 +14803,19 @@
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
-      <c r="M333" t="inlineStr"/>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr"/>
-      <c r="Q333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R333" t="n">
         <v>2</v>
       </c>
@@ -13189,7 +14849,11 @@
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
-      <c r="M334" t="inlineStr"/>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
@@ -13227,11 +14891,19 @@
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
-      <c r="M335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr"/>
-      <c r="Q335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R335" t="n">
         <v>2</v>
       </c>
@@ -13265,7 +14937,11 @@
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
-      <c r="M336" t="inlineStr"/>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr"/>
@@ -13303,7 +14979,11 @@
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
-      <c r="M337" t="inlineStr"/>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr"/>
@@ -13341,7 +15021,11 @@
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
-      <c r="M338" t="inlineStr"/>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr"/>
@@ -13379,7 +15063,11 @@
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
-      <c r="M339" t="inlineStr"/>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr"/>
@@ -13417,7 +15105,11 @@
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
@@ -13455,7 +15147,11 @@
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
-      <c r="M341" t="inlineStr"/>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr"/>
@@ -13493,7 +15189,11 @@
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
@@ -13531,11 +15231,19 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
-      <c r="M343" t="inlineStr"/>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr"/>
-      <c r="Q343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R343" t="n">
         <v>2</v>
       </c>
@@ -13569,11 +15277,19 @@
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr"/>
-      <c r="Q344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R344" t="n">
         <v>2</v>
       </c>
@@ -13607,11 +15323,19 @@
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
-      <c r="M345" t="inlineStr"/>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr"/>
-      <c r="Q345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R345" t="n">
         <v>2</v>
       </c>
@@ -13645,11 +15369,19 @@
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
-      <c r="M346" t="inlineStr"/>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr"/>
-      <c r="Q346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R346" t="n">
         <v>2</v>
       </c>
@@ -13683,7 +15415,11 @@
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
-      <c r="M347" t="inlineStr"/>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr"/>
@@ -13721,7 +15457,11 @@
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
-      <c r="M348" t="inlineStr"/>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr"/>
@@ -13759,7 +15499,11 @@
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr"/>
-      <c r="M349" t="inlineStr"/>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr"/>
@@ -13797,7 +15541,11 @@
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
-      <c r="M350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr"/>
@@ -13835,11 +15583,19 @@
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr"/>
-      <c r="M351" t="inlineStr"/>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr"/>
-      <c r="Q351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R351" t="n">
         <v>2</v>
       </c>
@@ -13873,7 +15629,11 @@
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr"/>
-      <c r="M352" t="inlineStr"/>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr"/>
@@ -13911,7 +15671,11 @@
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr"/>
-      <c r="M353" t="inlineStr"/>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>
@@ -13949,7 +15713,11 @@
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
-      <c r="M354" t="inlineStr"/>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr"/>
@@ -13987,7 +15755,11 @@
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
-      <c r="M355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr"/>
@@ -14025,7 +15797,11 @@
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
-      <c r="M356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr"/>
@@ -14063,7 +15839,11 @@
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr"/>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr"/>
@@ -14101,7 +15881,11 @@
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr"/>
-      <c r="M358" t="inlineStr"/>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr"/>
@@ -14139,11 +15923,19 @@
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr"/>
-      <c r="M359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
-      <c r="Q359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R359" t="n">
         <v>2</v>
       </c>
@@ -14177,7 +15969,11 @@
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr"/>
-      <c r="M360" t="inlineStr"/>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr"/>
@@ -14215,7 +16011,11 @@
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr"/>
-      <c r="M361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr"/>
@@ -14253,7 +16053,11 @@
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr"/>
-      <c r="M362" t="inlineStr"/>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr"/>
@@ -14291,7 +16095,11 @@
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr"/>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr"/>
@@ -14329,7 +16137,11 @@
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr"/>
-      <c r="M364" t="inlineStr"/>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr"/>
@@ -14367,7 +16179,11 @@
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr"/>
-      <c r="M365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr"/>
@@ -14405,11 +16221,19 @@
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr"/>
-      <c r="M366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr"/>
-      <c r="Q366" t="inlineStr"/>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R366" t="n">
         <v>2</v>
       </c>
@@ -14443,11 +16267,19 @@
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr"/>
-      <c r="M367" t="inlineStr"/>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr"/>
-      <c r="Q367" t="inlineStr"/>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R367" t="n">
         <v>2</v>
       </c>
@@ -14481,11 +16313,19 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr"/>
-      <c r="M368" t="inlineStr"/>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr"/>
-      <c r="Q368" t="inlineStr"/>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R368" t="n">
         <v>2</v>
       </c>
@@ -14519,7 +16359,11 @@
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr"/>
-      <c r="M369" t="inlineStr"/>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr"/>
@@ -14557,7 +16401,11 @@
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr"/>
-      <c r="M370" t="inlineStr"/>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr"/>
@@ -14595,7 +16443,11 @@
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr"/>
-      <c r="M371" t="inlineStr"/>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr"/>
@@ -14633,7 +16485,11 @@
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr"/>
-      <c r="M372" t="inlineStr"/>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr"/>
@@ -14671,11 +16527,19 @@
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr"/>
-      <c r="M373" t="inlineStr"/>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr"/>
-      <c r="Q373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R373" t="n">
         <v>2</v>
       </c>
@@ -14709,11 +16573,19 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
-      <c r="M374" t="inlineStr"/>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr"/>
-      <c r="Q374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R374" t="n">
         <v>2</v>
       </c>
@@ -14747,7 +16619,11 @@
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr"/>
-      <c r="M375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr"/>
@@ -14785,7 +16661,11 @@
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr"/>
-      <c r="M376" t="inlineStr"/>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr"/>
@@ -14823,11 +16703,19 @@
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr"/>
-      <c r="M377" t="inlineStr"/>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr"/>
-      <c r="Q377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R377" t="n">
         <v>2</v>
       </c>
@@ -14861,11 +16749,19 @@
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr"/>
-      <c r="M378" t="inlineStr"/>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr"/>
-      <c r="Q378" t="inlineStr"/>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R378" t="n">
         <v>2</v>
       </c>
@@ -14899,7 +16795,11 @@
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
-      <c r="M379" t="inlineStr"/>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr"/>
@@ -14937,7 +16837,11 @@
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>
-      <c r="M380" t="inlineStr"/>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr"/>
@@ -14975,7 +16879,11 @@
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr"/>
-      <c r="M381" t="inlineStr"/>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr"/>
@@ -15013,11 +16921,19 @@
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr"/>
-      <c r="M382" t="inlineStr"/>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr"/>
-      <c r="Q382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R382" t="n">
         <v>2</v>
       </c>
@@ -15051,11 +16967,19 @@
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr"/>
-      <c r="M383" t="inlineStr"/>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr"/>
-      <c r="Q383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R383" t="n">
         <v>2</v>
       </c>
@@ -15089,7 +17013,11 @@
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr"/>
-      <c r="M384" t="inlineStr"/>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr"/>
@@ -15127,7 +17055,11 @@
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr"/>
-      <c r="M385" t="inlineStr"/>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr"/>
@@ -15165,11 +17097,19 @@
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
-      <c r="M386" t="inlineStr"/>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr"/>
-      <c r="Q386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R386" t="n">
         <v>2</v>
       </c>
@@ -15203,7 +17143,11 @@
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr"/>
-      <c r="M387" t="inlineStr"/>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr"/>
@@ -15241,7 +17185,11 @@
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr"/>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
@@ -15279,7 +17227,11 @@
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr"/>
-      <c r="M389" t="inlineStr"/>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr"/>
@@ -15317,7 +17269,11 @@
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr"/>
-      <c r="M390" t="inlineStr"/>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr"/>
@@ -15355,7 +17311,11 @@
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr"/>
-      <c r="M391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr"/>
@@ -15393,7 +17353,11 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr"/>
-      <c r="M392" t="inlineStr"/>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr"/>
@@ -15431,7 +17395,11 @@
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr"/>
-      <c r="M393" t="inlineStr"/>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr"/>
@@ -15469,7 +17437,11 @@
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr"/>
@@ -15507,7 +17479,11 @@
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr"/>
-      <c r="M395" t="inlineStr"/>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr"/>
@@ -15545,7 +17521,11 @@
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr"/>
-      <c r="M396" t="inlineStr"/>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr"/>
@@ -15583,7 +17563,11 @@
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr"/>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="inlineStr"/>
@@ -15621,7 +17605,11 @@
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr"/>
-      <c r="M398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr"/>
@@ -15659,7 +17647,11 @@
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr"/>
-      <c r="M399" t="inlineStr"/>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr"/>
@@ -15697,7 +17689,11 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr"/>
-      <c r="M400" t="inlineStr"/>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr"/>
       <c r="P400" t="inlineStr"/>
@@ -15735,11 +17731,19 @@
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr"/>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr"/>
-      <c r="Q401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R401" t="n">
         <v>2</v>
       </c>
@@ -15773,7 +17777,11 @@
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr"/>
-      <c r="M402" t="inlineStr"/>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr"/>
@@ -15811,7 +17819,11 @@
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr"/>
-      <c r="M403" t="inlineStr"/>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr"/>
@@ -15849,11 +17861,19 @@
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr"/>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr"/>
-      <c r="Q404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R404" t="n">
         <v>2</v>
       </c>
@@ -15887,7 +17907,11 @@
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr"/>
-      <c r="M405" t="inlineStr"/>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr"/>
@@ -15925,11 +17949,19 @@
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr"/>
-      <c r="M406" t="inlineStr"/>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr"/>
-      <c r="Q406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R406" t="n">
         <v>2</v>
       </c>
@@ -15963,11 +17995,19 @@
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr"/>
-      <c r="M407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr"/>
-      <c r="Q407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R407" t="n">
         <v>2</v>
       </c>
@@ -16001,7 +18041,11 @@
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr"/>
-      <c r="M408" t="inlineStr"/>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr"/>
@@ -16039,7 +18083,11 @@
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr"/>
-      <c r="M409" t="inlineStr"/>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr"/>
@@ -16077,7 +18125,11 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr"/>
-      <c r="M410" t="inlineStr"/>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr"/>
@@ -16115,11 +18167,19 @@
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr"/>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr"/>
-      <c r="Q411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R411" t="n">
         <v>2</v>
       </c>
@@ -16153,7 +18213,11 @@
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr"/>
-      <c r="M412" t="inlineStr"/>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr"/>
@@ -16191,7 +18255,11 @@
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr"/>
-      <c r="M413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr"/>
@@ -16229,7 +18297,11 @@
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr"/>
-      <c r="M414" t="inlineStr"/>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr"/>
@@ -16267,7 +18339,11 @@
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr"/>
-      <c r="M415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr"/>
@@ -16305,7 +18381,11 @@
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr"/>
-      <c r="M416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr"/>
@@ -16343,7 +18423,11 @@
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr"/>
-      <c r="M417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr"/>
@@ -16381,7 +18465,11 @@
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr"/>
-      <c r="M418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr"/>
@@ -16419,11 +18507,19 @@
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr"/>
-      <c r="M419" t="inlineStr"/>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="inlineStr"/>
-      <c r="Q419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R419" t="n">
         <v>2</v>
       </c>
@@ -16457,7 +18553,11 @@
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr"/>
-      <c r="M420" t="inlineStr"/>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr"/>
@@ -16495,7 +18595,11 @@
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
@@ -16533,7 +18637,11 @@
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr"/>
-      <c r="M422" t="inlineStr"/>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr"/>
@@ -16571,7 +18679,11 @@
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr"/>
-      <c r="M423" t="inlineStr"/>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr"/>
@@ -16609,7 +18721,11 @@
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr"/>
-      <c r="M424" t="inlineStr"/>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr"/>
@@ -16647,7 +18763,11 @@
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr"/>
-      <c r="M425" t="inlineStr"/>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
@@ -16685,7 +18805,11 @@
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr"/>
-      <c r="M426" t="inlineStr"/>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr"/>
@@ -16723,11 +18847,19 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
-      <c r="M427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr"/>
-      <c r="Q427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R427" t="n">
         <v>2</v>
       </c>
@@ -16761,7 +18893,11 @@
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr"/>
-      <c r="M428" t="inlineStr"/>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr"/>
@@ -16799,7 +18935,11 @@
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr"/>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr"/>
@@ -16837,7 +18977,11 @@
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr"/>
-      <c r="M430" t="inlineStr"/>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
@@ -16875,7 +19019,11 @@
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr"/>
-      <c r="M431" t="inlineStr"/>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr"/>
@@ -16913,11 +19061,19 @@
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr"/>
-      <c r="M432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr"/>
-      <c r="Q432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R432" t="n">
         <v>2</v>
       </c>
@@ -16951,11 +19107,19 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr"/>
-      <c r="M433" t="inlineStr"/>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr"/>
-      <c r="Q433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R433" t="n">
         <v>2</v>
       </c>
@@ -16989,11 +19153,19 @@
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr"/>
-      <c r="M434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr"/>
-      <c r="Q434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R434" t="n">
         <v>2</v>
       </c>
@@ -17027,7 +19199,11 @@
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr"/>
-      <c r="M435" t="inlineStr"/>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="inlineStr"/>
@@ -17065,7 +19241,11 @@
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr"/>
-      <c r="M436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr"/>
@@ -17103,7 +19283,11 @@
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr"/>
-      <c r="M437" t="inlineStr"/>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr"/>
@@ -17141,7 +19325,11 @@
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr"/>
-      <c r="M438" t="inlineStr"/>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr"/>
@@ -17179,7 +19367,11 @@
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr"/>
-      <c r="M439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr"/>
@@ -17217,7 +19409,11 @@
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr"/>
-      <c r="M440" t="inlineStr"/>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr"/>
@@ -17255,11 +19451,19 @@
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr"/>
-      <c r="M441" t="inlineStr"/>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="inlineStr"/>
-      <c r="Q441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R441" t="n">
         <v>2</v>
       </c>
@@ -17293,11 +19497,19 @@
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr"/>
-      <c r="M442" t="inlineStr"/>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
-      <c r="Q442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R442" t="n">
         <v>2</v>
       </c>
@@ -17331,11 +19543,19 @@
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
-      <c r="M443" t="inlineStr"/>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
-      <c r="Q443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R443" t="n">
         <v>2</v>
       </c>
@@ -17369,7 +19589,11 @@
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
-      <c r="M444" t="inlineStr"/>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr"/>
@@ -17407,11 +19631,19 @@
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
-      <c r="M445" t="inlineStr"/>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr"/>
-      <c r="Q445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R445" t="n">
         <v>2</v>
       </c>
@@ -17445,11 +19677,19 @@
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
-      <c r="M446" t="inlineStr"/>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr"/>
-      <c r="Q446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R446" t="n">
         <v>2</v>
       </c>
@@ -17483,11 +19723,19 @@
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr"/>
-      <c r="M447" t="inlineStr"/>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr"/>
-      <c r="Q447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R447" t="n">
         <v>2</v>
       </c>
@@ -17521,11 +19769,19 @@
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
-      <c r="M448" t="inlineStr"/>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr"/>
-      <c r="Q448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R448" t="n">
         <v>2</v>
       </c>
@@ -17559,11 +19815,19 @@
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr"/>
-      <c r="M449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
-      <c r="Q449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R449" t="n">
         <v>2</v>
       </c>
@@ -17597,7 +19861,11 @@
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr"/>
-      <c r="M450" t="inlineStr"/>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr"/>
@@ -17635,7 +19903,11 @@
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
@@ -17673,7 +19945,11 @@
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr"/>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr"/>
@@ -17711,11 +19987,19 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
-      <c r="M453" t="inlineStr"/>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr"/>
-      <c r="Q453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R453" t="n">
         <v>2</v>
       </c>
@@ -17749,11 +20033,19 @@
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
-      <c r="M454" t="inlineStr"/>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr"/>
-      <c r="Q454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R454" t="n">
         <v>2</v>
       </c>
@@ -17787,7 +20079,11 @@
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr"/>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr"/>
@@ -17825,11 +20121,19 @@
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
-      <c r="M456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr"/>
-      <c r="Q456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R456" t="n">
         <v>2</v>
       </c>
@@ -17863,7 +20167,11 @@
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
-      <c r="M457" t="inlineStr"/>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr"/>
@@ -17901,11 +20209,19 @@
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
-      <c r="M458" t="inlineStr"/>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr"/>
-      <c r="Q458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R458" t="n">
         <v>2</v>
       </c>
@@ -17939,7 +20255,11 @@
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr"/>
-      <c r="M459" t="inlineStr"/>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr"/>
@@ -17977,7 +20297,11 @@
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr"/>
-      <c r="M460" t="inlineStr"/>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="inlineStr"/>
@@ -18015,7 +20339,11 @@
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
-      <c r="M461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
@@ -18053,11 +20381,19 @@
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr"/>
-      <c r="M462" t="inlineStr"/>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr"/>
-      <c r="Q462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R462" t="n">
         <v>2</v>
       </c>
@@ -18091,7 +20427,11 @@
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr"/>
-      <c r="M463" t="inlineStr"/>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="inlineStr"/>
@@ -18129,7 +20469,11 @@
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr"/>
-      <c r="M464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr"/>
@@ -18167,7 +20511,11 @@
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr"/>
-      <c r="M465" t="inlineStr"/>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr"/>
       <c r="P465" t="inlineStr"/>
@@ -18205,11 +20553,19 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr"/>
-      <c r="M466" t="inlineStr"/>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr"/>
-      <c r="Q466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R466" t="n">
         <v>2</v>
       </c>
@@ -18243,11 +20599,19 @@
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr"/>
-      <c r="M467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr"/>
-      <c r="Q467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R467" t="n">
         <v>2</v>
       </c>
@@ -18281,7 +20645,11 @@
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr"/>
-      <c r="M468" t="inlineStr"/>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr"/>
@@ -18319,7 +20687,11 @@
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr"/>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr"/>
@@ -18357,7 +20729,11 @@
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr"/>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="inlineStr"/>
@@ -18395,7 +20771,11 @@
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
-      <c r="M471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr"/>
@@ -18433,11 +20813,19 @@
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr"/>
-      <c r="M472" t="inlineStr"/>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="inlineStr"/>
-      <c r="Q472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R472" t="n">
         <v>2</v>
       </c>
@@ -18471,7 +20859,11 @@
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr"/>
-      <c r="M473" t="inlineStr"/>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr"/>
@@ -18509,7 +20901,11 @@
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr"/>
-      <c r="M474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr"/>
@@ -18547,7 +20943,11 @@
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr"/>
-      <c r="M475" t="inlineStr"/>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
@@ -18585,7 +20985,11 @@
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr"/>
-      <c r="M476" t="inlineStr"/>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="inlineStr"/>
@@ -18623,11 +21027,19 @@
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
-      <c r="M477" t="inlineStr"/>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="inlineStr"/>
-      <c r="Q477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R477" t="n">
         <v>2</v>
       </c>
@@ -18661,7 +21073,11 @@
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
-      <c r="M478" t="inlineStr"/>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr"/>
@@ -18699,11 +21115,19 @@
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr"/>
-      <c r="M479" t="inlineStr"/>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr"/>
-      <c r="Q479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R479" t="n">
         <v>2</v>
       </c>
@@ -18737,7 +21161,11 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr"/>
-      <c r="M480" t="inlineStr"/>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr"/>
@@ -18775,7 +21203,11 @@
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
-      <c r="M481" t="inlineStr"/>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr"/>
@@ -18813,7 +21245,11 @@
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr"/>
-      <c r="M482" t="inlineStr"/>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr"/>
@@ -18851,7 +21287,11 @@
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr"/>
-      <c r="M483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
@@ -18889,7 +21329,11 @@
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr"/>
-      <c r="M484" t="inlineStr"/>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr"/>
@@ -18927,7 +21371,11 @@
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr"/>
-      <c r="M485" t="inlineStr"/>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr"/>
@@ -18965,7 +21413,11 @@
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr"/>
-      <c r="M486" t="inlineStr"/>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="inlineStr"/>
@@ -19003,7 +21455,11 @@
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
-      <c r="M487" t="inlineStr"/>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr"/>
@@ -19041,11 +21497,19 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr"/>
-      <c r="Q488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R488" t="n">
         <v>2</v>
       </c>
@@ -19079,7 +21543,11 @@
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
-      <c r="M489" t="inlineStr"/>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="inlineStr"/>
@@ -19117,7 +21585,11 @@
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="inlineStr"/>
@@ -19155,7 +21627,11 @@
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr"/>
-      <c r="M491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr"/>
@@ -19193,7 +21669,11 @@
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr"/>
-      <c r="M492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr"/>
       <c r="P492" t="inlineStr"/>
@@ -19231,7 +21711,11 @@
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
-      <c r="M493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr"/>
@@ -19269,7 +21753,11 @@
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
-      <c r="M494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr"/>
@@ -19307,7 +21795,11 @@
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr"/>
-      <c r="M495" t="inlineStr"/>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr"/>
@@ -19345,7 +21837,11 @@
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr"/>
-      <c r="M496" t="inlineStr"/>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr"/>
@@ -19383,7 +21879,11 @@
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
-      <c r="M497" t="inlineStr"/>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr"/>
@@ -19421,7 +21921,11 @@
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr"/>
-      <c r="M498" t="inlineStr"/>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="inlineStr"/>
@@ -19459,7 +21963,11 @@
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr"/>
-      <c r="M499" t="inlineStr"/>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="inlineStr"/>
@@ -19497,7 +22005,11 @@
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
-      <c r="M500" t="inlineStr"/>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="inlineStr"/>
@@ -19535,7 +22047,11 @@
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr"/>
-      <c r="M501" t="inlineStr"/>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr"/>
@@ -19573,7 +22089,11 @@
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr"/>
-      <c r="M502" t="inlineStr"/>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr"/>
@@ -19611,7 +22131,11 @@
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr"/>
-      <c r="M503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr"/>
@@ -19649,11 +22173,19 @@
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
-      <c r="M504" t="inlineStr"/>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="inlineStr"/>
-      <c r="Q504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R504" t="n">
         <v>2</v>
       </c>
@@ -19687,7 +22219,11 @@
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr"/>
-      <c r="M505" t="inlineStr"/>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="inlineStr"/>
@@ -19725,11 +22261,19 @@
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr"/>
-      <c r="M506" t="inlineStr"/>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr"/>
       <c r="P506" t="inlineStr"/>
-      <c r="Q506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R506" t="n">
         <v>2</v>
       </c>
@@ -19763,7 +22307,11 @@
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr"/>
-      <c r="M507" t="inlineStr"/>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="inlineStr"/>
@@ -19801,7 +22349,11 @@
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr"/>
-      <c r="M508" t="inlineStr"/>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr"/>
@@ -19839,7 +22391,11 @@
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr"/>
-      <c r="M509" t="inlineStr"/>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr"/>
@@ -19877,11 +22433,19 @@
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr"/>
-      <c r="M510" t="inlineStr"/>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr"/>
-      <c r="Q510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R510" t="n">
         <v>2</v>
       </c>
@@ -19915,11 +22479,19 @@
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr"/>
-      <c r="M511" t="inlineStr"/>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr"/>
-      <c r="Q511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>Studies that were books or gray literature</t>
+        </is>
+      </c>
       <c r="R511" t="n">
         <v>2</v>
       </c>
@@ -19953,11 +22525,19 @@
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
-      <c r="M512" t="inlineStr"/>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr"/>
-      <c r="Q512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R512" t="n">
         <v>2</v>
       </c>
@@ -19991,7 +22571,11 @@
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr"/>
-      <c r="M513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="inlineStr"/>
@@ -20029,7 +22613,11 @@
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr"/>
-      <c r="M514" t="inlineStr"/>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr"/>
@@ -20067,7 +22655,11 @@
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
-      <c r="M515" t="inlineStr"/>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="inlineStr"/>
@@ -20105,7 +22697,11 @@
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr"/>
-      <c r="M516" t="inlineStr"/>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr"/>
@@ -20143,7 +22739,11 @@
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr"/>
-      <c r="M517" t="inlineStr"/>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr"/>
       <c r="P517" t="inlineStr"/>
@@ -20181,7 +22781,11 @@
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr"/>
-      <c r="M518" t="inlineStr"/>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="inlineStr"/>
@@ -20219,11 +22823,19 @@
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
-      <c r="M519" t="inlineStr"/>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr"/>
-      <c r="Q519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R519" t="n">
         <v>2</v>
       </c>
@@ -20257,7 +22869,11 @@
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr"/>
-      <c r="M520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="inlineStr"/>
@@ -20295,7 +22911,11 @@
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
-      <c r="M521" t="inlineStr"/>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr"/>
@@ -20333,7 +22953,11 @@
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr"/>
-      <c r="M522" t="inlineStr"/>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="inlineStr"/>
@@ -20371,11 +22995,19 @@
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
-      <c r="M523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="inlineStr"/>
-      <c r="Q523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+        </is>
+      </c>
       <c r="R523" t="n">
         <v>2</v>
       </c>
@@ -20409,7 +23041,11 @@
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
-      <c r="M524" t="inlineStr"/>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="inlineStr"/>
@@ -20447,11 +23083,19 @@
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr"/>
-      <c r="Q525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R525" t="n">
         <v>2</v>
       </c>
@@ -20485,7 +23129,11 @@
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr"/>
-      <c r="M526" t="inlineStr"/>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="inlineStr"/>
@@ -20523,7 +23171,11 @@
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
-      <c r="M527" t="inlineStr"/>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="inlineStr"/>
@@ -20561,7 +23213,11 @@
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr"/>
-      <c r="M528" t="inlineStr"/>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr"/>
       <c r="P528" t="inlineStr"/>
@@ -20599,11 +23255,19 @@
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr"/>
-      <c r="M529" t="inlineStr"/>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="inlineStr"/>
-      <c r="Q529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R529" t="n">
         <v>2</v>
       </c>
@@ -20637,7 +23301,11 @@
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr"/>
-      <c r="M530" t="inlineStr"/>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="inlineStr"/>
@@ -20675,7 +23343,11 @@
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr"/>
-      <c r="M531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="inlineStr"/>
@@ -20713,7 +23385,11 @@
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr"/>
-      <c r="M532" t="inlineStr"/>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="inlineStr"/>
@@ -20751,7 +23427,11 @@
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr"/>
-      <c r="M533" t="inlineStr"/>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="inlineStr"/>
@@ -20789,7 +23469,11 @@
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr"/>
-      <c r="M534" t="inlineStr"/>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="inlineStr"/>
@@ -20827,7 +23511,11 @@
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr"/>
-      <c r="M535" t="inlineStr"/>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr"/>
@@ -20865,7 +23553,11 @@
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr"/>
-      <c r="M536" t="inlineStr"/>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr"/>
       <c r="P536" t="inlineStr"/>
@@ -20903,7 +23595,11 @@
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr"/>
-      <c r="M537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="inlineStr"/>
@@ -20941,7 +23637,11 @@
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr"/>
-      <c r="M538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="inlineStr"/>
@@ -20979,7 +23679,11 @@
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
-      <c r="M539" t="inlineStr"/>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="inlineStr"/>
@@ -21017,7 +23721,11 @@
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr"/>
-      <c r="M540" t="inlineStr"/>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N540" t="inlineStr"/>
       <c r="O540" t="inlineStr"/>
       <c r="P540" t="inlineStr"/>
@@ -21055,7 +23763,11 @@
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
-      <c r="M541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr"/>
       <c r="P541" t="inlineStr"/>
@@ -21093,7 +23805,11 @@
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
-      <c r="M542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="inlineStr"/>
@@ -21131,7 +23847,11 @@
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr"/>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="inlineStr"/>
@@ -21169,7 +23889,11 @@
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
-      <c r="M544" t="inlineStr"/>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="inlineStr"/>
@@ -21207,7 +23931,11 @@
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
-      <c r="M545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="inlineStr"/>
@@ -21245,7 +23973,11 @@
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr"/>
-      <c r="M546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr"/>
@@ -21283,7 +24015,11 @@
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
-      <c r="M547" t="inlineStr"/>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr"/>
       <c r="P547" t="inlineStr"/>
@@ -21321,7 +24057,11 @@
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
-      <c r="M548" t="inlineStr"/>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr"/>
@@ -21359,11 +24099,19 @@
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="inlineStr"/>
-      <c r="Q549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>Studies that were not accessible in full-text</t>
+        </is>
+      </c>
       <c r="R549" t="n">
         <v>2</v>
       </c>
@@ -21397,7 +24145,11 @@
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
-      <c r="M550" t="inlineStr"/>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
@@ -21435,7 +24187,11 @@
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr"/>
-      <c r="M551" t="inlineStr"/>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr"/>
@@ -21473,7 +24229,11 @@
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr"/>
-      <c r="M552" t="inlineStr"/>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="inlineStr"/>
@@ -21511,7 +24271,11 @@
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
-      <c r="M553" t="inlineStr"/>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="inlineStr"/>
@@ -21549,7 +24313,11 @@
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr"/>
-      <c r="M554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N554" t="inlineStr"/>
       <c r="O554" t="inlineStr"/>
       <c r="P554" t="inlineStr"/>
@@ -21587,7 +24355,11 @@
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
-      <c r="M555" t="inlineStr"/>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="inlineStr"/>
@@ -21625,7 +24397,11 @@
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
-      <c r="M556" t="inlineStr"/>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N556" t="inlineStr"/>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="inlineStr"/>
@@ -21663,7 +24439,11 @@
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
-      <c r="M557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="inlineStr"/>

--- a/Datasets/TrustSE/TrustSE_pre-extract.xlsx
+++ b/Datasets/TrustSE/TrustSE_pre-extract.xlsx
@@ -578,7 +578,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -620,7 +624,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -662,7 +670,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -704,7 +716,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -746,7 +762,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -788,7 +808,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -830,7 +854,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -872,7 +900,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -914,7 +946,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -956,7 +992,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -998,7 +1038,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1040,7 +1084,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1082,7 +1130,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1124,7 +1176,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1166,7 +1222,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1212,7 +1272,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1254,7 +1318,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1296,7 +1364,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1338,7 +1410,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1380,7 +1456,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
@@ -1426,7 +1506,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1468,7 +1552,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1510,7 +1598,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1552,7 +1644,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1594,7 +1690,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1636,7 +1736,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -1678,7 +1782,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -1720,7 +1828,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -1762,7 +1874,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1804,7 +1920,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -1846,7 +1966,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
@@ -1892,7 +2016,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -1934,7 +2062,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -1976,7 +2108,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2018,7 +2154,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2060,7 +2200,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2102,7 +2246,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2144,7 +2292,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2186,7 +2338,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2228,7 +2384,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2270,7 +2430,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2312,7 +2476,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2354,7 +2522,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2396,7 +2568,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -2442,7 +2618,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -2484,7 +2664,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -2526,7 +2710,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -2568,7 +2756,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -2614,7 +2806,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
@@ -2660,7 +2856,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -2702,7 +2902,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -2744,7 +2948,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -2786,7 +2994,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -2828,7 +3040,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -2874,7 +3090,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -2916,7 +3136,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -2962,7 +3186,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3004,7 +3232,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3046,7 +3278,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3088,7 +3324,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -3134,7 +3374,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3176,7 +3420,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
@@ -3222,7 +3470,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
@@ -3268,7 +3520,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3310,7 +3566,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
@@ -3356,7 +3616,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3398,7 +3662,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3440,7 +3708,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
@@ -3486,7 +3758,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3528,7 +3804,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
@@ -3574,7 +3854,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -3616,7 +3900,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -3658,7 +3946,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -3700,7 +3992,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -3742,7 +4038,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -3784,7 +4084,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -3826,7 +4130,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -3868,7 +4176,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
@@ -3910,7 +4222,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -3952,7 +4268,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -3994,7 +4314,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
@@ -4036,7 +4360,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -4078,7 +4406,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
@@ -4124,7 +4456,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
@@ -4166,7 +4502,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -4208,7 +4548,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -4250,7 +4594,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
@@ -4296,7 +4644,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -4338,7 +4690,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -4380,7 +4736,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
@@ -4422,7 +4782,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -4464,7 +4828,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -4506,7 +4874,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -4548,7 +4920,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -4590,7 +4966,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
@@ -4632,7 +5012,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
@@ -4674,7 +5058,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
@@ -4716,7 +5104,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
@@ -4762,7 +5154,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
@@ -4804,7 +5200,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
@@ -4850,7 +5250,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
@@ -4896,7 +5300,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
@@ -4942,7 +5350,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
@@ -4984,7 +5396,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
@@ -5026,7 +5442,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -5068,7 +5488,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
@@ -5110,7 +5534,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
@@ -5152,7 +5580,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
@@ -5194,7 +5626,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
@@ -5236,7 +5672,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
@@ -5282,7 +5722,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
@@ -5324,7 +5768,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -5366,7 +5814,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -5408,7 +5860,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
@@ -5454,7 +5910,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
@@ -5496,7 +5956,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
@@ -5542,7 +6006,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
@@ -5584,7 +6052,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr">
@@ -5630,7 +6102,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
@@ -5676,7 +6152,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr">
@@ -5722,7 +6202,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr">
@@ -5768,7 +6252,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
@@ -5814,7 +6302,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
@@ -5860,7 +6352,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
@@ -5902,7 +6398,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
@@ -5944,7 +6444,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
@@ -5986,7 +6490,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
@@ -6028,7 +6536,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
@@ -6074,7 +6586,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr">
@@ -6120,7 +6636,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
@@ -6162,7 +6682,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
@@ -6208,7 +6732,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
@@ -6250,7 +6778,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
@@ -6292,7 +6824,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
@@ -6334,7 +6870,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
@@ -6376,7 +6916,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
@@ -6418,7 +6962,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
@@ -6460,7 +7008,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
@@ -6502,7 +7054,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
@@ -6544,7 +7100,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -6586,7 +7146,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
@@ -6628,7 +7192,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
@@ -6670,7 +7238,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
@@ -6712,7 +7284,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
@@ -6754,7 +7330,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
@@ -6796,7 +7376,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
@@ -6838,7 +7422,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -6880,7 +7468,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
@@ -6922,7 +7514,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
@@ -6964,7 +7560,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -7006,7 +7606,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
@@ -7048,7 +7652,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
@@ -7090,7 +7698,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -7132,7 +7744,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
@@ -7174,7 +7790,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
@@ -7216,7 +7836,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
@@ -7262,7 +7886,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -7304,7 +7932,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
@@ -7346,7 +7978,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
@@ -7388,7 +8024,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr">
@@ -7434,7 +8074,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
@@ -7476,7 +8120,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
@@ -7518,7 +8166,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr">
@@ -7564,7 +8216,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
@@ -7606,7 +8262,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
@@ -7648,7 +8308,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
@@ -7690,7 +8354,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -7732,7 +8400,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -7774,7 +8446,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
@@ -7816,7 +8492,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
@@ -7858,7 +8538,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
@@ -7900,7 +8584,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
@@ -7942,7 +8630,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
@@ -7984,7 +8676,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr">
@@ -8030,7 +8726,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
@@ -8072,7 +8772,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
@@ -8114,7 +8818,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr">
@@ -8160,7 +8868,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
@@ -8202,7 +8914,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr">
@@ -8248,7 +8964,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
@@ -8290,7 +9010,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr">
@@ -8336,7 +9060,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
@@ -8378,7 +9106,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr">
@@ -8424,7 +9156,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
@@ -8466,7 +9202,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
@@ -8508,7 +9248,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
@@ -8550,7 +9294,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr">
@@ -8596,7 +9344,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
@@ -8638,7 +9390,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr">
@@ -8684,7 +9440,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
@@ -8726,7 +9486,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr">
@@ -8772,7 +9536,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
@@ -8814,7 +9582,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr">
@@ -8860,7 +9632,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -8902,7 +9678,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
@@ -8944,7 +9724,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr">
@@ -8990,7 +9774,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
@@ -9032,7 +9820,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr">
@@ -9078,7 +9870,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
@@ -9120,7 +9916,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr">
@@ -9166,7 +9966,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
@@ -9208,7 +10012,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
@@ -9250,7 +10058,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
@@ -9292,7 +10104,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr">
@@ -9338,7 +10154,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr">
@@ -9384,7 +10204,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
@@ -9426,7 +10250,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
@@ -9468,7 +10296,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr">
@@ -9514,7 +10346,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr">
@@ -9560,7 +10396,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
@@ -9602,7 +10442,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
@@ -9644,7 +10488,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr">
@@ -9690,7 +10538,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
@@ -9732,7 +10584,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr">
@@ -9778,7 +10634,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
@@ -9820,7 +10680,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr">
@@ -9866,7 +10730,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
@@ -9908,7 +10776,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
@@ -9950,7 +10822,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
@@ -9992,7 +10868,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
@@ -10034,7 +10914,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr"/>
@@ -10076,7 +10960,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr"/>
@@ -10118,7 +11006,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
@@ -10160,7 +11052,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
@@ -10202,7 +11098,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
@@ -10244,7 +11144,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr"/>
@@ -10286,7 +11190,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="inlineStr"/>
@@ -10328,7 +11236,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="inlineStr"/>
@@ -10370,7 +11282,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr">
@@ -10416,7 +11332,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr"/>
@@ -10458,7 +11378,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
@@ -10500,7 +11424,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
@@ -10542,7 +11470,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr">
@@ -10588,7 +11520,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr">
@@ -10634,7 +11570,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr">
@@ -10680,7 +11620,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
@@ -10722,7 +11666,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
@@ -10764,7 +11712,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr">
@@ -10810,7 +11762,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr">
@@ -10856,7 +11812,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
@@ -10898,7 +11858,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
@@ -10940,7 +11904,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
@@ -10982,7 +11950,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="inlineStr"/>
@@ -11024,7 +11996,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr"/>
@@ -11066,7 +12042,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr"/>
@@ -11108,7 +12088,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr">
@@ -11154,7 +12138,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="inlineStr"/>
@@ -11196,7 +12184,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="inlineStr"/>
@@ -11238,7 +12230,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr"/>
@@ -11280,7 +12276,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
@@ -11322,7 +12322,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
@@ -11364,7 +12368,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="inlineStr">
@@ -11410,7 +12418,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="inlineStr"/>
@@ -11452,7 +12464,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="inlineStr">
@@ -11498,7 +12514,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr"/>
       <c r="Q256" t="inlineStr">
@@ -11544,7 +12564,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
       <c r="Q257" t="inlineStr">
@@ -11590,7 +12614,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="inlineStr"/>
@@ -11632,7 +12660,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
       <c r="Q259" t="inlineStr"/>
@@ -11674,7 +12706,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr"/>
       <c r="Q260" t="inlineStr"/>
@@ -11716,7 +12752,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="inlineStr"/>
@@ -11758,7 +12798,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
@@ -11800,7 +12844,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="inlineStr">
@@ -11846,7 +12894,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="inlineStr"/>
@@ -11888,7 +12940,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
@@ -11930,7 +12986,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="inlineStr">
@@ -11976,7 +13036,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
       <c r="Q267" t="inlineStr">
@@ -12022,7 +13086,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
       <c r="Q268" t="inlineStr"/>
@@ -12064,7 +13132,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="inlineStr">
@@ -12110,7 +13182,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="inlineStr"/>
@@ -12152,7 +13228,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="inlineStr"/>
@@ -12194,7 +13274,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="inlineStr"/>
@@ -12236,7 +13320,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="inlineStr"/>
@@ -12278,7 +13366,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
       <c r="Q274" t="inlineStr"/>
@@ -12320,7 +13412,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="inlineStr"/>
       <c r="Q275" t="inlineStr"/>
@@ -12362,7 +13458,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
       <c r="Q276" t="inlineStr"/>
@@ -12404,7 +13504,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr"/>
       <c r="Q277" t="inlineStr"/>
@@ -12446,7 +13550,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr"/>
       <c r="Q278" t="inlineStr">
@@ -12492,7 +13600,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr"/>
       <c r="Q279" t="inlineStr">
@@ -12538,7 +13650,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
       <c r="Q280" t="inlineStr"/>
@@ -12580,7 +13696,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr"/>
       <c r="Q281" t="inlineStr"/>
@@ -12622,7 +13742,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr"/>
       <c r="Q282" t="inlineStr"/>
@@ -12664,7 +13788,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr"/>
       <c r="Q283" t="inlineStr">
@@ -12710,7 +13838,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="inlineStr"/>
       <c r="Q284" t="inlineStr"/>
@@ -12752,7 +13884,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr"/>
       <c r="Q285" t="inlineStr"/>
@@ -12794,7 +13930,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
       <c r="Q286" t="inlineStr"/>
@@ -12836,7 +13976,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="inlineStr"/>
@@ -12878,7 +14022,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="inlineStr"/>
@@ -12920,7 +14068,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="inlineStr"/>
@@ -12962,7 +14114,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="inlineStr"/>
@@ -13004,7 +14160,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="inlineStr">
@@ -13050,7 +14210,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr"/>
@@ -13092,7 +14256,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
@@ -13134,7 +14302,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
@@ -13176,7 +14348,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr"/>
       <c r="Q295" t="inlineStr"/>
@@ -13218,7 +14394,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="inlineStr"/>
@@ -13260,7 +14440,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr"/>
       <c r="Q297" t="inlineStr"/>
@@ -13302,7 +14486,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr"/>
       <c r="Q298" t="inlineStr"/>
@@ -13344,7 +14532,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr"/>
       <c r="Q299" t="inlineStr"/>
@@ -13386,7 +14578,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="inlineStr"/>
       <c r="Q300" t="inlineStr">
@@ -13432,7 +14628,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="inlineStr"/>
@@ -13474,7 +14674,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
       <c r="Q302" t="inlineStr"/>
@@ -13516,7 +14720,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="inlineStr"/>
@@ -13558,7 +14766,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="inlineStr"/>
@@ -13600,7 +14812,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="inlineStr"/>
@@ -13642,7 +14858,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="inlineStr"/>
@@ -13684,7 +14904,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr"/>
       <c r="Q307" t="inlineStr"/>
@@ -13726,7 +14950,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr"/>
       <c r="Q308" t="inlineStr"/>
@@ -13768,7 +14996,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr"/>
       <c r="Q309" t="inlineStr"/>
@@ -13810,7 +15042,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr"/>
       <c r="Q310" t="inlineStr"/>
@@ -13852,7 +15088,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="inlineStr">
@@ -13898,7 +15138,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="inlineStr"/>
@@ -13940,7 +15184,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="inlineStr"/>
@@ -13982,7 +15230,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="inlineStr">
@@ -14028,7 +15280,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr"/>
       <c r="Q315" t="inlineStr"/>
@@ -14070,7 +15326,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr"/>
       <c r="Q316" t="inlineStr">
@@ -14116,7 +15376,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="inlineStr"/>
@@ -14158,7 +15422,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="inlineStr"/>
@@ -14200,7 +15468,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr"/>
       <c r="Q319" t="inlineStr"/>
@@ -14242,7 +15514,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="inlineStr"/>
@@ -14284,7 +15560,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr"/>
       <c r="Q321" t="inlineStr"/>
@@ -14326,7 +15606,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="inlineStr"/>
       <c r="Q322" t="inlineStr">
@@ -14372,7 +15656,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr"/>
       <c r="Q323" t="inlineStr"/>
@@ -14414,7 +15702,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
       <c r="Q324" t="inlineStr"/>
@@ -14456,7 +15748,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
       <c r="Q325" t="inlineStr">
@@ -14502,7 +15798,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
       <c r="Q326" t="inlineStr"/>
@@ -14544,7 +15844,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr"/>
       <c r="Q327" t="inlineStr"/>
@@ -14586,7 +15890,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="inlineStr">
@@ -14632,7 +15940,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="inlineStr">
@@ -14678,7 +15990,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="inlineStr">
@@ -14724,7 +16040,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
       <c r="Q331" t="inlineStr"/>
@@ -14766,7 +16086,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
       <c r="Q332" t="inlineStr"/>
@@ -14808,7 +16132,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr"/>
       <c r="Q333" t="inlineStr">
@@ -14854,7 +16182,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
       <c r="Q334" t="inlineStr"/>
@@ -14896,7 +16228,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr"/>
       <c r="Q335" t="inlineStr">
@@ -14942,7 +16278,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr"/>
       <c r="Q336" t="inlineStr"/>
@@ -14984,7 +16324,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="inlineStr"/>
@@ -15026,7 +16370,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr"/>
@@ -15068,7 +16416,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="inlineStr"/>
@@ -15110,7 +16462,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="inlineStr"/>
@@ -15152,7 +16508,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="inlineStr"/>
@@ -15194,7 +16554,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="inlineStr"/>
@@ -15236,7 +16600,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="inlineStr">
@@ -15282,7 +16650,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr"/>
       <c r="Q344" t="inlineStr">
@@ -15328,7 +16700,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="inlineStr">
@@ -15374,7 +16750,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr"/>
       <c r="Q346" t="inlineStr">
@@ -15420,7 +16800,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="inlineStr"/>
@@ -15462,7 +16846,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="inlineStr"/>
@@ -15504,7 +16892,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="inlineStr"/>
@@ -15546,7 +16938,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="inlineStr"/>
@@ -15588,7 +16984,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr"/>
       <c r="Q351" t="inlineStr">
@@ -15634,7 +17034,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr"/>
@@ -15676,7 +17080,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="inlineStr"/>
@@ -15718,7 +17126,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr"/>
       <c r="Q354" t="inlineStr"/>
@@ -15760,7 +17172,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr"/>
       <c r="Q355" t="inlineStr"/>
@@ -15802,7 +17218,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr"/>
       <c r="Q356" t="inlineStr"/>
@@ -15844,7 +17264,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr"/>
       <c r="Q357" t="inlineStr"/>
@@ -15886,7 +17310,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr"/>
       <c r="Q358" t="inlineStr"/>
@@ -15928,7 +17356,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
       <c r="Q359" t="inlineStr">
@@ -15974,7 +17406,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr"/>
       <c r="Q360" t="inlineStr"/>
@@ -16016,7 +17452,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr"/>
       <c r="Q361" t="inlineStr"/>
@@ -16058,7 +17498,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr"/>
       <c r="Q362" t="inlineStr"/>
@@ -16100,7 +17544,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr"/>
       <c r="Q363" t="inlineStr"/>
@@ -16142,7 +17590,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr"/>
       <c r="Q364" t="inlineStr"/>
@@ -16184,7 +17636,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr"/>
       <c r="Q365" t="inlineStr"/>
@@ -16226,7 +17682,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr"/>
       <c r="Q366" t="inlineStr">
@@ -16272,7 +17732,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr"/>
       <c r="Q367" t="inlineStr">
@@ -16318,7 +17782,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr"/>
       <c r="Q368" t="inlineStr">
@@ -16364,7 +17832,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr"/>
       <c r="Q369" t="inlineStr"/>
@@ -16406,7 +17878,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr"/>
       <c r="Q370" t="inlineStr"/>
@@ -16448,7 +17924,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr"/>
       <c r="Q371" t="inlineStr"/>
@@ -16490,7 +17970,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr"/>
       <c r="Q372" t="inlineStr"/>
@@ -16532,7 +18016,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr"/>
       <c r="Q373" t="inlineStr">
@@ -16578,7 +18066,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr"/>
       <c r="Q374" t="inlineStr">
@@ -16624,7 +18116,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr"/>
       <c r="Q375" t="inlineStr"/>
@@ -16666,7 +18162,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr"/>
       <c r="Q376" t="inlineStr"/>
@@ -16708,7 +18208,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr"/>
       <c r="Q377" t="inlineStr">
@@ -16754,7 +18258,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr"/>
       <c r="Q378" t="inlineStr">
@@ -16800,7 +18308,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr"/>
       <c r="Q379" t="inlineStr"/>
@@ -16842,7 +18354,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr"/>
       <c r="Q380" t="inlineStr"/>
@@ -16884,7 +18400,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr"/>
       <c r="Q381" t="inlineStr"/>
@@ -16926,7 +18446,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr"/>
       <c r="Q382" t="inlineStr">
@@ -16972,7 +18496,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr"/>
       <c r="Q383" t="inlineStr">
@@ -17018,7 +18546,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N384" t="inlineStr"/>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr"/>
       <c r="Q384" t="inlineStr"/>
@@ -17060,7 +18592,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N385" t="inlineStr"/>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr"/>
       <c r="Q385" t="inlineStr"/>
@@ -17102,7 +18638,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr"/>
       <c r="Q386" t="inlineStr">
@@ -17148,7 +18688,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N387" t="inlineStr"/>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr"/>
       <c r="Q387" t="inlineStr"/>
@@ -17190,7 +18734,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N388" t="inlineStr"/>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
       <c r="Q388" t="inlineStr"/>
@@ -17232,7 +18780,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr"/>
       <c r="Q389" t="inlineStr"/>
@@ -17274,7 +18826,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr"/>
       <c r="Q390" t="inlineStr"/>
@@ -17316,7 +18872,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr"/>
       <c r="Q391" t="inlineStr"/>
@@ -17358,7 +18918,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N392" t="inlineStr"/>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr"/>
       <c r="Q392" t="inlineStr"/>
@@ -17400,7 +18964,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N393" t="inlineStr"/>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr"/>
       <c r="Q393" t="inlineStr"/>
@@ -17442,7 +19010,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N394" t="inlineStr"/>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr"/>
       <c r="Q394" t="inlineStr"/>
@@ -17484,7 +19056,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N395" t="inlineStr"/>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr"/>
       <c r="Q395" t="inlineStr"/>
@@ -17526,7 +19102,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N396" t="inlineStr"/>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr"/>
       <c r="Q396" t="inlineStr"/>
@@ -17568,7 +19148,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N397" t="inlineStr"/>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="inlineStr"/>
       <c r="Q397" t="inlineStr"/>
@@ -17610,7 +19194,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N398" t="inlineStr"/>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr"/>
       <c r="Q398" t="inlineStr"/>
@@ -17652,7 +19240,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N399" t="inlineStr"/>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr"/>
       <c r="Q399" t="inlineStr"/>
@@ -17694,7 +19286,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N400" t="inlineStr"/>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O400" t="inlineStr"/>
       <c r="P400" t="inlineStr"/>
       <c r="Q400" t="inlineStr"/>
@@ -17736,7 +19332,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N401" t="inlineStr"/>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr"/>
       <c r="Q401" t="inlineStr">
@@ -17782,7 +19382,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N402" t="inlineStr"/>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr"/>
       <c r="Q402" t="inlineStr"/>
@@ -17824,7 +19428,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N403" t="inlineStr"/>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr"/>
       <c r="Q403" t="inlineStr"/>
@@ -17866,7 +19474,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N404" t="inlineStr"/>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr"/>
       <c r="Q404" t="inlineStr">
@@ -17912,7 +19524,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N405" t="inlineStr"/>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr"/>
       <c r="Q405" t="inlineStr"/>
@@ -17954,7 +19570,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N406" t="inlineStr"/>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr"/>
       <c r="Q406" t="inlineStr">
@@ -18000,7 +19620,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N407" t="inlineStr"/>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr"/>
       <c r="Q407" t="inlineStr">
@@ -18046,7 +19670,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N408" t="inlineStr"/>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr"/>
       <c r="Q408" t="inlineStr"/>
@@ -18088,7 +19716,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N409" t="inlineStr"/>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr"/>
       <c r="Q409" t="inlineStr"/>
@@ -18130,7 +19762,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N410" t="inlineStr"/>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr"/>
       <c r="Q410" t="inlineStr"/>
@@ -18172,7 +19808,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N411" t="inlineStr"/>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr"/>
       <c r="Q411" t="inlineStr">
@@ -18218,7 +19858,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N412" t="inlineStr"/>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr"/>
       <c r="Q412" t="inlineStr"/>
@@ -18260,7 +19904,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N413" t="inlineStr"/>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="inlineStr"/>
@@ -18302,7 +19950,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N414" t="inlineStr"/>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr"/>
       <c r="Q414" t="inlineStr"/>
@@ -18344,7 +19996,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N415" t="inlineStr"/>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="inlineStr"/>
@@ -18386,7 +20042,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N416" t="inlineStr"/>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr"/>
       <c r="Q416" t="inlineStr"/>
@@ -18428,7 +20088,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N417" t="inlineStr"/>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr"/>
       <c r="Q417" t="inlineStr"/>
@@ -18470,7 +20134,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N418" t="inlineStr"/>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr"/>
       <c r="Q418" t="inlineStr"/>
@@ -18512,7 +20180,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N419" t="inlineStr"/>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="inlineStr"/>
       <c r="Q419" t="inlineStr">
@@ -18558,7 +20230,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N420" t="inlineStr"/>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr"/>
       <c r="Q420" t="inlineStr"/>
@@ -18600,7 +20276,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N421" t="inlineStr"/>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
       <c r="Q421" t="inlineStr"/>
@@ -18642,7 +20322,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N422" t="inlineStr"/>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="inlineStr"/>
@@ -18684,7 +20368,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N423" t="inlineStr"/>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="inlineStr"/>
@@ -18726,7 +20414,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N424" t="inlineStr"/>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="inlineStr"/>
@@ -18768,7 +20460,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N425" t="inlineStr"/>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="inlineStr"/>
@@ -18810,7 +20506,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N426" t="inlineStr"/>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr"/>
       <c r="Q426" t="inlineStr"/>
@@ -18852,7 +20552,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N427" t="inlineStr"/>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr"/>
       <c r="Q427" t="inlineStr">
@@ -18898,7 +20602,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N428" t="inlineStr"/>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr"/>
       <c r="Q428" t="inlineStr"/>
@@ -18940,7 +20648,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N429" t="inlineStr"/>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr"/>
       <c r="Q429" t="inlineStr"/>
@@ -18982,7 +20694,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N430" t="inlineStr"/>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
       <c r="Q430" t="inlineStr"/>
@@ -19024,7 +20740,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N431" t="inlineStr"/>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr"/>
       <c r="Q431" t="inlineStr"/>
@@ -19066,7 +20786,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N432" t="inlineStr"/>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="inlineStr">
@@ -19112,7 +20836,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N433" t="inlineStr"/>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr"/>
       <c r="Q433" t="inlineStr">
@@ -19158,7 +20886,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N434" t="inlineStr"/>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="inlineStr">
@@ -19204,7 +20936,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N435" t="inlineStr"/>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="inlineStr"/>
@@ -19246,7 +20982,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N436" t="inlineStr"/>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="inlineStr"/>
@@ -19288,7 +21028,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N437" t="inlineStr"/>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="inlineStr"/>
@@ -19330,7 +21074,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N438" t="inlineStr"/>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr"/>
       <c r="Q438" t="inlineStr"/>
@@ -19372,7 +21120,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N439" t="inlineStr"/>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="inlineStr"/>
@@ -19414,7 +21166,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N440" t="inlineStr"/>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr"/>
       <c r="Q440" t="inlineStr"/>
@@ -19456,7 +21212,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N441" t="inlineStr"/>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="inlineStr"/>
       <c r="Q441" t="inlineStr">
@@ -19502,7 +21262,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N442" t="inlineStr"/>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr">
@@ -19548,7 +21312,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N443" t="inlineStr"/>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr">
@@ -19594,7 +21362,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N444" t="inlineStr"/>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr"/>
       <c r="Q444" t="inlineStr"/>
@@ -19636,7 +21408,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N445" t="inlineStr"/>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr"/>
       <c r="Q445" t="inlineStr">
@@ -19682,7 +21458,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N446" t="inlineStr"/>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr"/>
       <c r="Q446" t="inlineStr">
@@ -19728,7 +21508,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N447" t="inlineStr"/>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="inlineStr">
@@ -19774,7 +21558,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N448" t="inlineStr"/>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr"/>
       <c r="Q448" t="inlineStr">
@@ -19820,7 +21608,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N449" t="inlineStr"/>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="inlineStr">
@@ -19866,7 +21658,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N450" t="inlineStr"/>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr"/>
       <c r="Q450" t="inlineStr"/>
@@ -19908,7 +21704,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N451" t="inlineStr"/>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="inlineStr"/>
@@ -19950,7 +21750,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N452" t="inlineStr"/>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="inlineStr"/>
@@ -19992,7 +21796,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N453" t="inlineStr"/>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr"/>
       <c r="Q453" t="inlineStr">
@@ -20038,7 +21846,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N454" t="inlineStr"/>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr"/>
       <c r="Q454" t="inlineStr">
@@ -20084,7 +21896,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N455" t="inlineStr"/>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr"/>
       <c r="Q455" t="inlineStr"/>
@@ -20126,7 +21942,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N456" t="inlineStr"/>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="inlineStr">
@@ -20172,7 +21992,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N457" t="inlineStr"/>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr"/>
       <c r="Q457" t="inlineStr"/>
@@ -20214,7 +22038,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N458" t="inlineStr"/>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr"/>
       <c r="Q458" t="inlineStr">
@@ -20260,7 +22088,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N459" t="inlineStr"/>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr"/>
       <c r="Q459" t="inlineStr"/>
@@ -20302,7 +22134,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N460" t="inlineStr"/>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="inlineStr"/>
@@ -20344,7 +22180,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N461" t="inlineStr"/>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="inlineStr"/>
@@ -20386,7 +22226,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N462" t="inlineStr"/>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr"/>
       <c r="Q462" t="inlineStr">
@@ -20432,7 +22276,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N463" t="inlineStr"/>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="inlineStr"/>
       <c r="Q463" t="inlineStr"/>
@@ -20474,7 +22322,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N464" t="inlineStr"/>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="inlineStr"/>
@@ -20516,7 +22368,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N465" t="inlineStr"/>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O465" t="inlineStr"/>
       <c r="P465" t="inlineStr"/>
       <c r="Q465" t="inlineStr"/>
@@ -20558,7 +22414,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N466" t="inlineStr"/>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="inlineStr">
@@ -20604,7 +22464,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N467" t="inlineStr"/>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr"/>
       <c r="Q467" t="inlineStr">
@@ -20650,7 +22514,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N468" t="inlineStr"/>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="inlineStr"/>
@@ -20692,7 +22560,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N469" t="inlineStr"/>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="inlineStr"/>
@@ -20734,7 +22606,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N470" t="inlineStr"/>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="inlineStr"/>
       <c r="Q470" t="inlineStr"/>
@@ -20776,7 +22652,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N471" t="inlineStr"/>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr"/>
       <c r="Q471" t="inlineStr"/>
@@ -20818,7 +22698,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N472" t="inlineStr"/>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="inlineStr"/>
       <c r="Q472" t="inlineStr">
@@ -20864,7 +22748,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N473" t="inlineStr"/>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr"/>
       <c r="Q473" t="inlineStr"/>
@@ -20906,7 +22794,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N474" t="inlineStr"/>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr"/>
       <c r="Q474" t="inlineStr"/>
@@ -20948,7 +22840,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N475" t="inlineStr"/>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
       <c r="Q475" t="inlineStr"/>
@@ -20990,7 +22886,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N476" t="inlineStr"/>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="inlineStr"/>
@@ -21032,7 +22932,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N477" t="inlineStr"/>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="inlineStr">
@@ -21078,7 +22982,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N478" t="inlineStr"/>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="inlineStr"/>
@@ -21120,7 +23028,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N479" t="inlineStr"/>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr"/>
       <c r="Q479" t="inlineStr">
@@ -21166,7 +23078,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N480" t="inlineStr"/>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="inlineStr"/>
@@ -21208,7 +23124,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N481" t="inlineStr"/>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="inlineStr"/>
@@ -21250,7 +23170,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N482" t="inlineStr"/>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="inlineStr"/>
@@ -21292,7 +23216,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N483" t="inlineStr"/>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="inlineStr"/>
@@ -21334,7 +23262,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N484" t="inlineStr"/>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="inlineStr"/>
@@ -21376,7 +23308,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N485" t="inlineStr"/>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="inlineStr"/>
@@ -21418,7 +23354,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N486" t="inlineStr"/>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="inlineStr"/>
       <c r="Q486" t="inlineStr"/>
@@ -21460,7 +23400,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N487" t="inlineStr"/>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="inlineStr"/>
@@ -21502,7 +23446,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N488" t="inlineStr"/>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr"/>
       <c r="Q488" t="inlineStr">
@@ -21548,7 +23496,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N489" t="inlineStr"/>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="inlineStr"/>
@@ -21590,7 +23542,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N490" t="inlineStr"/>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="inlineStr"/>
@@ -21632,7 +23588,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N491" t="inlineStr"/>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="inlineStr"/>
@@ -21674,7 +23634,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N492" t="inlineStr"/>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O492" t="inlineStr"/>
       <c r="P492" t="inlineStr"/>
       <c r="Q492" t="inlineStr"/>
@@ -21716,7 +23680,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N493" t="inlineStr"/>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr"/>
       <c r="Q493" t="inlineStr"/>
@@ -21758,7 +23726,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N494" t="inlineStr"/>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr"/>
       <c r="Q494" t="inlineStr"/>
@@ -21800,7 +23772,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N495" t="inlineStr"/>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="inlineStr"/>
@@ -21842,7 +23818,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N496" t="inlineStr"/>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr"/>
       <c r="Q496" t="inlineStr"/>
@@ -21884,7 +23864,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N497" t="inlineStr"/>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="inlineStr"/>
@@ -21926,7 +23910,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N498" t="inlineStr"/>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="inlineStr"/>
       <c r="Q498" t="inlineStr"/>
@@ -21968,7 +23956,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N499" t="inlineStr"/>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="inlineStr"/>
@@ -22010,7 +24002,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N500" t="inlineStr"/>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="inlineStr"/>
       <c r="Q500" t="inlineStr"/>
@@ -22052,7 +24048,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N501" t="inlineStr"/>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr"/>
       <c r="Q501" t="inlineStr"/>
@@ -22094,7 +24094,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N502" t="inlineStr"/>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr"/>
       <c r="Q502" t="inlineStr"/>
@@ -22136,7 +24140,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N503" t="inlineStr"/>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr"/>
       <c r="Q503" t="inlineStr"/>
@@ -22178,7 +24186,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N504" t="inlineStr"/>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="inlineStr">
@@ -22224,7 +24236,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N505" t="inlineStr"/>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="inlineStr"/>
       <c r="Q505" t="inlineStr"/>
@@ -22266,7 +24282,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N506" t="inlineStr"/>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O506" t="inlineStr"/>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="inlineStr">
@@ -22312,7 +24332,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N507" t="inlineStr"/>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="inlineStr"/>
       <c r="Q507" t="inlineStr"/>
@@ -22354,7 +24378,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N508" t="inlineStr"/>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr"/>
       <c r="Q508" t="inlineStr"/>
@@ -22396,7 +24424,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N509" t="inlineStr"/>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr"/>
       <c r="Q509" t="inlineStr"/>
@@ -22438,7 +24470,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N510" t="inlineStr"/>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr"/>
       <c r="Q510" t="inlineStr">
@@ -22484,7 +24520,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N511" t="inlineStr"/>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr"/>
       <c r="Q511" t="inlineStr">
@@ -22530,7 +24570,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N512" t="inlineStr"/>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="inlineStr">
@@ -22576,7 +24620,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N513" t="inlineStr"/>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="inlineStr"/>
       <c r="Q513" t="inlineStr"/>
@@ -22618,7 +24666,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N514" t="inlineStr"/>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr"/>
       <c r="Q514" t="inlineStr"/>
@@ -22660,7 +24712,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N515" t="inlineStr"/>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="inlineStr"/>
       <c r="Q515" t="inlineStr"/>
@@ -22702,7 +24758,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N516" t="inlineStr"/>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr"/>
       <c r="Q516" t="inlineStr"/>
@@ -22744,7 +24804,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N517" t="inlineStr"/>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O517" t="inlineStr"/>
       <c r="P517" t="inlineStr"/>
       <c r="Q517" t="inlineStr"/>
@@ -22786,7 +24850,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N518" t="inlineStr"/>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="inlineStr"/>
       <c r="Q518" t="inlineStr"/>
@@ -22828,7 +24896,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N519" t="inlineStr"/>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr"/>
       <c r="Q519" t="inlineStr">
@@ -22874,7 +24946,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N520" t="inlineStr"/>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="inlineStr"/>
@@ -22916,7 +24992,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N521" t="inlineStr"/>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr"/>
       <c r="Q521" t="inlineStr"/>
@@ -22958,7 +25038,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N522" t="inlineStr"/>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="inlineStr"/>
       <c r="Q522" t="inlineStr"/>
@@ -23000,7 +25084,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N523" t="inlineStr"/>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="inlineStr">
@@ -23046,7 +25134,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N524" t="inlineStr"/>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="inlineStr"/>
@@ -23088,7 +25180,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N525" t="inlineStr"/>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr"/>
       <c r="Q525" t="inlineStr">
@@ -23134,7 +25230,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N526" t="inlineStr"/>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="inlineStr"/>
       <c r="Q526" t="inlineStr"/>
@@ -23176,7 +25276,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N527" t="inlineStr"/>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="inlineStr"/>
@@ -23218,7 +25322,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N528" t="inlineStr"/>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O528" t="inlineStr"/>
       <c r="P528" t="inlineStr"/>
       <c r="Q528" t="inlineStr"/>
@@ -23260,7 +25368,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N529" t="inlineStr"/>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="inlineStr"/>
       <c r="Q529" t="inlineStr">
@@ -23306,7 +25418,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N530" t="inlineStr"/>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="inlineStr"/>
       <c r="Q530" t="inlineStr"/>
@@ -23348,7 +25464,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N531" t="inlineStr"/>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="inlineStr"/>
@@ -23390,7 +25510,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N532" t="inlineStr"/>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="inlineStr"/>
@@ -23432,7 +25556,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N533" t="inlineStr"/>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="inlineStr"/>
       <c r="Q533" t="inlineStr"/>
@@ -23474,7 +25602,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N534" t="inlineStr"/>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="inlineStr"/>
       <c r="Q534" t="inlineStr"/>
@@ -23516,7 +25648,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N535" t="inlineStr"/>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="inlineStr"/>
@@ -23558,7 +25694,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N536" t="inlineStr"/>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O536" t="inlineStr"/>
       <c r="P536" t="inlineStr"/>
       <c r="Q536" t="inlineStr"/>
@@ -23600,7 +25740,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N537" t="inlineStr"/>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="inlineStr"/>
@@ -23642,7 +25786,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N538" t="inlineStr"/>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="inlineStr"/>
@@ -23684,7 +25832,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N539" t="inlineStr"/>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="inlineStr"/>
@@ -23726,7 +25878,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N540" t="inlineStr"/>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O540" t="inlineStr"/>
       <c r="P540" t="inlineStr"/>
       <c r="Q540" t="inlineStr"/>
@@ -23768,7 +25924,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N541" t="inlineStr"/>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O541" t="inlineStr"/>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="inlineStr"/>
@@ -23810,7 +25970,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N542" t="inlineStr"/>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="inlineStr"/>
@@ -23852,7 +26016,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N543" t="inlineStr"/>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="inlineStr"/>
@@ -23894,7 +26062,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N544" t="inlineStr"/>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="inlineStr"/>
       <c r="Q544" t="inlineStr"/>
@@ -23936,7 +26108,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N545" t="inlineStr"/>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="inlineStr"/>
       <c r="Q545" t="inlineStr"/>
@@ -23978,7 +26154,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N546" t="inlineStr"/>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr"/>
       <c r="Q546" t="inlineStr"/>
@@ -24020,7 +26200,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N547" t="inlineStr"/>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O547" t="inlineStr"/>
       <c r="P547" t="inlineStr"/>
       <c r="Q547" t="inlineStr"/>
@@ -24062,7 +26246,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N548" t="inlineStr"/>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr"/>
       <c r="Q548" t="inlineStr"/>
@@ -24104,7 +26292,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N549" t="inlineStr"/>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="inlineStr"/>
       <c r="Q549" t="inlineStr">
@@ -24150,7 +26342,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N550" t="inlineStr"/>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
       <c r="Q550" t="inlineStr"/>
@@ -24192,7 +26388,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N551" t="inlineStr"/>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr"/>
       <c r="Q551" t="inlineStr"/>
@@ -24234,7 +26434,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N552" t="inlineStr"/>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="inlineStr"/>
       <c r="Q552" t="inlineStr"/>
@@ -24276,7 +26480,11 @@
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N553" t="inlineStr"/>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="inlineStr"/>
       <c r="Q553" t="inlineStr"/>
@@ -24318,7 +26526,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N554" t="inlineStr"/>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O554" t="inlineStr"/>
       <c r="P554" t="inlineStr"/>
       <c r="Q554" t="inlineStr"/>
@@ -24360,7 +26572,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N555" t="inlineStr"/>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="inlineStr"/>
@@ -24402,7 +26618,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N556" t="inlineStr"/>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="inlineStr"/>
       <c r="Q556" t="inlineStr"/>
@@ -24444,7 +26664,11 @@
           <t>Included</t>
         </is>
       </c>
-      <c r="N557" t="inlineStr"/>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="inlineStr"/>
       <c r="Q557" t="inlineStr"/>
